--- a/blueprint-jira-better-excel/Venus-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Venus-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{800D1E39-5612-4B11-B33B-7E1CE827ABD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{EFBD2B44-C4C3-447D-A825-CBD2CE3A7D7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1815,10 +1815,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.984375</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4992,10 +4992,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.984375</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8361,10 +8361,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.984375</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20061,25 +20061,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>445</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>374.3650793650794</c:v>
+                  <c:v>420.63492063492066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303.73015873015873</c:v>
+                  <c:v>341.26984126984127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233.0952380952381</c:v>
+                  <c:v>261.90476190476193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>204.84126984126985</c:v>
+                  <c:v>230.15873015873018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>141.26984126984127</c:v>
+                  <c:v>158.73015873015873</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.634920634920633</c:v>
+                  <c:v>79.365079365079367</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -21012,28 +21012,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>445</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>445</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>445</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>445</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>445</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>445</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>445</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22228,10 +22228,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.984375</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41038,7 +41038,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2%</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41679,7 +41679,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2%</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42355,7 +42355,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2%</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42862,7 +42862,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2%</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42879,7 +42879,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43775.620386921299" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43796.594344907404" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -48424,4161 +48424,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="9"/>
-        <item m="1" x="54"/>
-        <item m="1" x="40"/>
-        <item m="1" x="27"/>
-        <item m="1" x="19"/>
-        <item m="1" x="11"/>
-        <item m="1" x="55"/>
-        <item m="1" x="26"/>
-        <item m="1" x="58"/>
-        <item m="1" x="51"/>
-        <item m="1" x="35"/>
-        <item m="1" x="25"/>
-        <item m="1" x="16"/>
-        <item m="1" x="30"/>
-        <item m="1" x="32"/>
-        <item m="1" x="37"/>
-        <item m="1" x="42"/>
-        <item m="1" x="45"/>
-        <item m="1" x="49"/>
-        <item m="1" x="53"/>
-        <item m="1" x="56"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="29"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="39"/>
-        <item m="1" x="43"/>
-        <item m="1" x="46"/>
-        <item m="1" x="34"/>
-        <item m="1" x="38"/>
-        <item m="1" x="41"/>
-        <item m="1" x="44"/>
-        <item m="1" x="47"/>
-        <item m="1" x="50"/>
-        <item m="1" x="52"/>
-        <item m="1" x="12"/>
-        <item m="1" x="57"/>
-        <item m="1" x="48"/>
-        <item m="1" x="36"/>
-        <item m="1" x="28"/>
-        <item m="1" x="21"/>
-        <item m="1" x="14"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="52" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item h="1" x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="15" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="16" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="15" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -53027,6 +48872,4161 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="15" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item m="1" x="18"/>
+        <item m="1" x="9"/>
+        <item m="1" x="54"/>
+        <item m="1" x="40"/>
+        <item m="1" x="27"/>
+        <item m="1" x="19"/>
+        <item m="1" x="11"/>
+        <item m="1" x="55"/>
+        <item m="1" x="26"/>
+        <item m="1" x="58"/>
+        <item m="1" x="51"/>
+        <item m="1" x="35"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="30"/>
+        <item m="1" x="32"/>
+        <item m="1" x="37"/>
+        <item m="1" x="42"/>
+        <item m="1" x="45"/>
+        <item m="1" x="49"/>
+        <item m="1" x="53"/>
+        <item m="1" x="56"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="29"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="39"/>
+        <item m="1" x="43"/>
+        <item m="1" x="46"/>
+        <item m="1" x="34"/>
+        <item m="1" x="38"/>
+        <item m="1" x="41"/>
+        <item m="1" x="44"/>
+        <item m="1" x="47"/>
+        <item m="1" x="50"/>
+        <item m="1" x="52"/>
+        <item m="1" x="12"/>
+        <item m="1" x="57"/>
+        <item m="1" x="48"/>
+        <item m="1" x="36"/>
+        <item m="1" x="28"/>
+        <item m="1" x="21"/>
+        <item m="1" x="14"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="52" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item h="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="15" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="16" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -58839,16 +58839,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="13" width="14.1328125" customWidth="1"/>
@@ -58919,7 +58919,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>1.5625E-2</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58997,7 +58997,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.984375</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="26">
         <v>43775</v>
@@ -59026,7 +59026,7 @@
       </c>
       <c r="Q3" s="40">
         <f>$Q$25*(100%-K3)</f>
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="R3" s="42">
         <v>408.5</v>
@@ -59107,7 +59107,7 @@
       </c>
       <c r="Q4" s="40">
         <f>$Q$25*(100%-K4)</f>
-        <v>374.3650793650794</v>
+        <v>420.63492063492066</v>
       </c>
       <c r="R4" s="42">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
@@ -59180,7 +59180,7 @@
       <c r="P5" s="76"/>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
-        <v>303.73015873015873</v>
+        <v>341.26984126984127</v>
       </c>
       <c r="R5" s="42"/>
       <c r="S5" s="42">
@@ -59225,7 +59225,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43775</v>
+        <v>43796</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>260</v>
@@ -59256,7 +59256,7 @@
       <c r="P6" s="76"/>
       <c r="Q6" s="40">
         <f t="shared" ref="Q6" si="5">$Q$25*(100%-K6)</f>
-        <v>233.0952380952381</v>
+        <v>261.90476190476193</v>
       </c>
       <c r="R6" s="42"/>
       <c r="S6" s="42">
@@ -59324,7 +59324,7 @@
       <c r="P7" s="76"/>
       <c r="Q7" s="40">
         <f t="shared" si="1"/>
-        <v>204.84126984126985</v>
+        <v>230.15873015873018</v>
       </c>
       <c r="R7" s="42"/>
       <c r="S7" s="42">
@@ -59387,7 +59387,7 @@
       <c r="P8" s="76"/>
       <c r="Q8" s="40">
         <f t="shared" si="1"/>
-        <v>141.26984126984127</v>
+        <v>158.73015873015873</v>
       </c>
       <c r="R8" s="42"/>
       <c r="S8" s="42">
@@ -59454,7 +59454,7 @@
       <c r="P9" s="76"/>
       <c r="Q9" s="42">
         <f t="shared" si="1"/>
-        <v>70.634920634920633</v>
+        <v>79.365079365079367</v>
       </c>
       <c r="R9" s="42"/>
       <c r="S9" s="42">
@@ -59807,7 +59807,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>1.5625E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59816,7 +59816,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.984375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -59874,7 +59874,7 @@
         <v>135</v>
       </c>
       <c r="Q25">
-        <v>445</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.45">
@@ -60674,7 +60674,7 @@
       </c>
       <c r="E3" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="F3" s="40">
         <v>429.5</v>
@@ -60798,7 +60798,7 @@
       </c>
       <c r="E4" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="F4" s="40">
         <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
@@ -60934,7 +60934,7 @@
       <c r="D5" s="57"/>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
@@ -60989,7 +60989,7 @@
       <c r="D6" s="57"/>
       <c r="E6" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
@@ -61044,7 +61044,7 @@
       <c r="D7" s="57"/>
       <c r="E7" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -61105,7 +61105,7 @@
       <c r="D8" s="57"/>
       <c r="E8" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -61166,7 +61166,7 @@
       <c r="D9" s="57"/>
       <c r="E9" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -61221,7 +61221,7 @@
       <c r="D10" s="57"/>
       <c r="E10" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>

--- a/blueprint-jira-better-excel/Venus-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Venus-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{EFBD2B44-C4C3-447D-A825-CBD2CE3A7D7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{3F1E985F-09FF-4385-8832-87744F99AD9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId19"/>
+    <pivotCache cacheId="61" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1815,10 +1815,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.25</c:v>
+                  <c:v>0.265625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0.734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,6 +2331,9 @@
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3788,6 +3791,9 @@
                   <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>209.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4133,6 +4139,9 @@
                   <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>242.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4206,6 +4215,9 @@
                   <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>197.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4281,6 +4293,9 @@
                   <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>144.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4354,6 +4369,9 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-50</c:v>
                 </c:pt>
               </c:numCache>
@@ -4992,10 +5010,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.25</c:v>
+                  <c:v>0.265625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0.734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5514,6 +5532,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -6980,6 +7001,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7543,6 +7567,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -7616,6 +7643,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7691,6 +7721,9 @@
                   <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7764,6 +7797,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -8361,10 +8397,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.25</c:v>
+                  <c:v>0.265625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0.734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8877,6 +8913,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -9324,6 +9363,9 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9677,6 +9719,9 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -9750,6 +9795,9 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9825,6 +9873,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9898,6 +9949,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -11319,6 +11373,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -11448,6 +11505,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>221.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15095,6 +15155,9 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -15329,7 +15392,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 1 Progress</c:v>
+              <c:v>Sprint 2 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15821,16 +15884,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20159,6 +20219,9 @@
                   <c:v>408.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>430.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20504,6 +20567,9 @@
                   <c:v>429.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>501.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
@@ -20577,6 +20643,9 @@
                   <c:v>429.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>456.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20652,6 +20721,9 @@
                   <c:v>339.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>362.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20725,6 +20797,9 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -22228,10 +22303,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.25</c:v>
+                  <c:v>0.265625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0.734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41038,7 +41113,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>25%</a:t>
+            <a:t>27%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41416,7 +41491,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>26</a:t>
+            <a:t>11</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41679,7 +41754,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>25%</a:t>
+            <a:t>27%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42355,7 +42430,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>25%</a:t>
+            <a:t>27%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42862,7 +42937,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>25%</a:t>
+            <a:t>27%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42879,7 +42954,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43796.594344907404" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43797.326113078707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44727,7 +44802,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44776,7 +44851,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44825,7 +44900,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44874,7 +44949,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44923,7 +44998,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44972,7 +45047,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45021,7 +45096,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48424,7 +48499,3719 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="16" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item m="1" x="18"/>
+        <item m="1" x="9"/>
+        <item m="1" x="54"/>
+        <item m="1" x="40"/>
+        <item m="1" x="27"/>
+        <item m="1" x="19"/>
+        <item m="1" x="11"/>
+        <item m="1" x="55"/>
+        <item m="1" x="26"/>
+        <item m="1" x="58"/>
+        <item m="1" x="51"/>
+        <item m="1" x="35"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="30"/>
+        <item m="1" x="32"/>
+        <item m="1" x="37"/>
+        <item m="1" x="42"/>
+        <item m="1" x="45"/>
+        <item m="1" x="49"/>
+        <item m="1" x="53"/>
+        <item m="1" x="56"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="29"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="39"/>
+        <item m="1" x="43"/>
+        <item m="1" x="46"/>
+        <item m="1" x="34"/>
+        <item m="1" x="38"/>
+        <item m="1" x="41"/>
+        <item m="1" x="44"/>
+        <item m="1" x="47"/>
+        <item m="1" x="50"/>
+        <item m="1" x="52"/>
+        <item m="1" x="12"/>
+        <item m="1" x="57"/>
+        <item m="1" x="48"/>
+        <item m="1" x="36"/>
+        <item m="1" x="28"/>
+        <item m="1" x="21"/>
+        <item m="1" x="14"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="53" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item h="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="15" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="15" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48884,2217 +52671,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="15" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="9"/>
-        <item m="1" x="54"/>
-        <item m="1" x="40"/>
-        <item m="1" x="27"/>
-        <item m="1" x="19"/>
-        <item m="1" x="11"/>
-        <item m="1" x="55"/>
-        <item m="1" x="26"/>
-        <item m="1" x="58"/>
-        <item m="1" x="51"/>
-        <item m="1" x="35"/>
-        <item m="1" x="25"/>
-        <item m="1" x="16"/>
-        <item m="1" x="30"/>
-        <item m="1" x="32"/>
-        <item m="1" x="37"/>
-        <item m="1" x="42"/>
-        <item m="1" x="45"/>
-        <item m="1" x="49"/>
-        <item m="1" x="53"/>
-        <item m="1" x="56"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="29"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="39"/>
-        <item m="1" x="43"/>
-        <item m="1" x="46"/>
-        <item m="1" x="34"/>
-        <item m="1" x="38"/>
-        <item m="1" x="41"/>
-        <item m="1" x="44"/>
-        <item m="1" x="47"/>
-        <item m="1" x="50"/>
-        <item m="1" x="52"/>
-        <item m="1" x="12"/>
-        <item m="1" x="57"/>
-        <item m="1" x="48"/>
-        <item m="1" x="36"/>
-        <item m="1" x="28"/>
-        <item m="1" x="21"/>
-        <item m="1" x="14"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="52" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51259,1272 +52837,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item h="1" x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="15" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52788,245 +53102,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="16" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -55266,6 +55341,9 @@
       <c r="K7" t="s">
         <v>258</v>
       </c>
+      <c r="L7">
+        <v>57.25</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
@@ -55338,7 +55416,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>0</v>
+        <v>57.25</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55388,7 +55466,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Venus1</v>
+        <v>Venus2</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55402,7 +55480,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55450,7 +55528,7 @@
         <v>175</v>
       </c>
       <c r="E9" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -55473,16 +55551,14 @@
       <c r="D12" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="20">
-        <v>20</v>
-      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55491,7 +55567,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55500,7 +55576,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Venus", "") &amp; " Progress"</f>
-        <v>Sprint 1 Progress</v>
+        <v>Sprint 2 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56906,7 +56982,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus1</v>
+        <v>Venus2</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -56930,7 +57006,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus1</v>
+        <v>Venus2</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -56954,7 +57030,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus1</v>
+        <v>Venus2</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -56978,7 +57054,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus1</v>
+        <v>Venus2</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57002,7 +57078,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus1</v>
+        <v>Venus2</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57026,7 +57102,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus1</v>
+        <v>Venus2</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57047,7 +57123,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus1</v>
+        <v>Venus2</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58842,13 +58918,13 @@
     <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="13" width="14.1328125" customWidth="1"/>
@@ -58919,7 +58995,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58997,7 +59073,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.75</v>
+        <v>0.734375</v>
       </c>
       <c r="D3" s="26">
         <v>43775</v>
@@ -59090,52 +59166,44 @@
         <v>0.15873015873015872</v>
       </c>
       <c r="M4" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>-0.5</v>
+        <v>0.13</v>
       </c>
       <c r="O4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
-        <v>-2</v>
+        <v>0.18</v>
       </c>
       <c r="P4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Export")</f>
-        <v>-2</v>
+        <v>0.19</v>
       </c>
       <c r="Q4" s="40">
         <f>$Q$25*(100%-K4)</f>
         <v>420.63492063492066</v>
       </c>
       <c r="R4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>430.3</v>
       </c>
       <c r="S4" s="42">
         <f>$Q$26*(100%-K4)</f>
         <v>151.42857142857142</v>
       </c>
       <c r="T4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>150</v>
+        <v>209.8</v>
       </c>
       <c r="U4" s="40">
         <f>$Q$27*(100%-L4)</f>
         <v>126.19047619047619</v>
       </c>
       <c r="V4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="W4" s="40">
         <f>$Q$28*(100%-K4)</f>
         <v>42.063492063492063</v>
       </c>
       <c r="X4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")</f>
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="Z4" s="32">
         <v>43824</v>
@@ -59174,30 +59242,54 @@
         <f>SUM($J$4:J5)/SUM($J$4:$J$10)</f>
         <v>0.31746031746031744</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
+      <c r="M5" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
+        <v>-2</v>
+      </c>
+      <c r="P5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Export")</f>
+        <v>-2</v>
+      </c>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
         <v>341.26984126984127</v>
       </c>
-      <c r="R5" s="42"/>
+      <c r="R5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S5" s="42">
         <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
         <v>122.85714285714286</v>
       </c>
-      <c r="T5" s="42"/>
+      <c r="T5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>150</v>
+      </c>
       <c r="U5" s="40">
         <f t="shared" ref="U5:U9" si="3">$Q$27*(100%-L5)</f>
         <v>102.38095238095238</v>
       </c>
-      <c r="V5" s="42"/>
+      <c r="V5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
+        <v>150</v>
+      </c>
       <c r="W5" s="40">
         <f t="shared" ref="W5:W9" si="4">$Q$28*(100%-K5)</f>
         <v>34.126984126984127</v>
       </c>
-      <c r="X5" s="42"/>
+      <c r="X5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")</f>
+        <v>150</v>
+      </c>
       <c r="Z5" s="32">
         <v>43825</v>
       </c>
@@ -59225,7 +59317,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43796</v>
+        <v>43797</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>260</v>
@@ -59807,7 +59899,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59816,7 +59908,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.75</v>
+        <v>0.734375</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -60793,132 +60885,116 @@
         <v>43788</v>
       </c>
       <c r="D4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>600</v>
+        <v>501.8</v>
       </c>
       <c r="E4" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>500</v>
       </c>
       <c r="F4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>456.8</v>
       </c>
       <c r="G4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>362.8</v>
       </c>
       <c r="H4" s="40">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>71.5</v>
       </c>
       <c r="I4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>430.3</v>
       </c>
       <c r="J4" s="33">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.72299721004384221</v>
       </c>
       <c r="K4" s="33">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.14248704663212436</v>
       </c>
       <c r="L4" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>100</v>
+        <v>242.3</v>
       </c>
       <c r="M4" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>180</v>
       </c>
       <c r="N4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>0</v>
+        <v>197.3</v>
       </c>
       <c r="O4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>180</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="P4" s="40">
         <f t="shared" si="3"/>
-        <v>-50</v>
+        <v>32.5</v>
       </c>
       <c r="Q4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>150</v>
+        <v>209.8</v>
       </c>
       <c r="R4" s="33">
         <f t="shared" si="4"/>
-        <v>1.8</v>
+        <v>0.59554271564176642</v>
       </c>
       <c r="S4" s="33">
         <f t="shared" si="5"/>
-        <v>-0.5</v>
+        <v>0.13413124226165909</v>
       </c>
       <c r="T4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="U4" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>150</v>
       </c>
       <c r="V4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="W4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="X4" s="40">
         <f t="shared" si="6"/>
-        <v>-100</v>
+        <v>27</v>
       </c>
       <c r="Y4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="Z4" s="33">
         <f t="shared" si="7"/>
-        <v>3.6</v>
+        <v>0.86577181208053688</v>
       </c>
       <c r="AA4" s="33">
         <f t="shared" si="8"/>
-        <v>-2</v>
+        <v>0.18120805369127516</v>
       </c>
       <c r="AB4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>50</v>
       </c>
       <c r="AD4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AE4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AF4" s="40">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>12</v>
       </c>
       <c r="AG4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="AH4" s="33">
         <f t="shared" si="10"/>
-        <v>3.6</v>
+        <v>0.921875</v>
       </c>
       <c r="AI4" s="33">
         <f t="shared" si="11"/>
-        <v>-2</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.45">
@@ -60931,50 +61007,134 @@
       <c r="C5" s="60">
         <v>43802</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>600</v>
+      </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>500</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="59"/>
+      <c r="F5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" ref="H5" si="12">D5-I5</f>
+        <v>150</v>
+      </c>
+      <c r="I5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" ref="J5" si="13" xml:space="preserve"> G5/D5</f>
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="33">
+        <f t="shared" ref="K5" si="14" xml:space="preserve"> H5/D5</f>
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>100</v>
+      </c>
       <c r="M5" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>180</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="57"/>
+      <c r="N5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>180</v>
+      </c>
+      <c r="P5" s="40">
+        <f t="shared" ref="P5" si="15">L5-Q5</f>
+        <v>-50</v>
+      </c>
+      <c r="Q5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>150</v>
+      </c>
+      <c r="R5" s="33">
+        <f t="shared" ref="R5" si="16" xml:space="preserve"> O5/L5</f>
+        <v>1.8</v>
+      </c>
+      <c r="S5" s="33">
+        <f t="shared" ref="S5" si="17" xml:space="preserve"> P5/L5</f>
+        <v>-0.5</v>
+      </c>
+      <c r="T5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>50</v>
+      </c>
       <c r="U5" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>150</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="57"/>
+      <c r="V5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>180</v>
+      </c>
+      <c r="X5" s="40">
+        <f t="shared" ref="X5" si="18">T5-Y5</f>
+        <v>-100</v>
+      </c>
+      <c r="Y5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>150</v>
+      </c>
+      <c r="Z5" s="33">
+        <f t="shared" ref="Z5" si="19" xml:space="preserve"> W5/T5</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA5" s="33">
+        <f t="shared" ref="AA5" si="20">X5/T5</f>
+        <v>-2</v>
+      </c>
+      <c r="AB5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>50</v>
+      </c>
       <c r="AC5" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>50</v>
       </c>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
+      <c r="AD5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>180</v>
+      </c>
+      <c r="AF5" s="40">
+        <f t="shared" ref="AF5" si="21">AB5-AG5</f>
+        <v>-100</v>
+      </c>
+      <c r="AG5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>150</v>
+      </c>
+      <c r="AH5" s="33">
+        <f t="shared" ref="AH5" si="22" xml:space="preserve"> AE5/AB5</f>
+        <v>3.6</v>
+      </c>
+      <c r="AI5" s="33">
+        <f t="shared" ref="AI5" si="23">AF5/AB5</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -61738,20 +61898,24 @@
         <v>258</v>
       </c>
       <c r="C16" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D16" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>221.25</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>60</v>
+      </c>
+      <c r="D17" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">

--- a/blueprint-jira-better-excel/Venus-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Venus-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{3F1E985F-09FF-4385-8832-87744F99AD9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{584906AF-BA2D-4CC5-8E7E-A88601125B98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="61" r:id="rId19"/>
+    <pivotCache cacheId="58" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1047,7 +1047,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1287,6 +1287,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1296,7 +1307,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1437,6 +1448,7 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1815,10 +1827,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.265625</c:v>
+                  <c:v>0.328125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.734375</c:v>
+                  <c:v>0.671875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,6 +2346,9 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3794,6 +3809,9 @@
                   <c:v>209.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>155.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4142,6 +4160,9 @@
                   <c:v>242.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>218.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4218,6 +4239,9 @@
                   <c:v>197.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>218.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4296,6 +4320,9 @@
                   <c:v>144.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>211.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4372,6 +4399,9 @@
                   <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5010,10 +5040,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.265625</c:v>
+                  <c:v>0.328125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.734375</c:v>
+                  <c:v>0.671875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5535,6 +5565,9 @@
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7004,6 +7037,9 @@
                   <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7570,6 +7606,9 @@
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -7646,6 +7685,9 @@
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7724,6 +7766,9 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7800,6 +7845,9 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -8397,10 +8445,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.265625</c:v>
+                  <c:v>0.328125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.734375</c:v>
+                  <c:v>0.671875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8916,6 +8964,9 @@
                   <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -9366,6 +9417,9 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9722,6 +9776,9 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -9798,6 +9855,9 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9876,6 +9936,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9952,6 +10015,9 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -11376,6 +11442,9 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -11508,6 +11577,9 @@
                   <c:v>221.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>187.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15158,6 +15230,9 @@
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -15392,7 +15467,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 2 Progress</c:v>
+              <c:v>Sprint 3 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15881,16 +15956,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20222,6 +20300,9 @@
                   <c:v>430.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20570,6 +20651,9 @@
                   <c:v>501.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>516.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
@@ -20646,6 +20730,9 @@
                   <c:v>456.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>474.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20724,6 +20811,9 @@
                   <c:v>362.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>448.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20800,6 +20890,9 @@
                   <c:v>71.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>185.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -22303,10 +22396,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.265625</c:v>
+                  <c:v>0.328125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.734375</c:v>
+                  <c:v>0.671875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41113,7 +41206,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>27%</a:t>
+            <a:t>33%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41491,7 +41584,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>11</a:t>
+            <a:t>26</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41754,7 +41847,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>27%</a:t>
+            <a:t>33%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42430,7 +42523,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>27%</a:t>
+            <a:t>33%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42937,7 +43030,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>27%</a:t>
+            <a:t>33%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42954,7 +43047,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43797.326113078707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43803.346661226853" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44802,7 +44895,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44851,7 +44944,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44900,7 +44993,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44949,7 +45042,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44998,7 +45091,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45047,7 +45140,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45096,7 +45189,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48499,8 +48592,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48607,7 +48700,7 @@
   <pageFields count="3">
     <pageField fld="32" item="8" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="16" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48625,2421 +48718,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="9"/>
-        <item m="1" x="54"/>
-        <item m="1" x="40"/>
-        <item m="1" x="27"/>
-        <item m="1" x="19"/>
-        <item m="1" x="11"/>
-        <item m="1" x="55"/>
-        <item m="1" x="26"/>
-        <item m="1" x="58"/>
-        <item m="1" x="51"/>
-        <item m="1" x="35"/>
-        <item m="1" x="25"/>
-        <item m="1" x="16"/>
-        <item m="1" x="30"/>
-        <item m="1" x="32"/>
-        <item m="1" x="37"/>
-        <item m="1" x="42"/>
-        <item m="1" x="45"/>
-        <item m="1" x="49"/>
-        <item m="1" x="53"/>
-        <item m="1" x="56"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="29"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="39"/>
-        <item m="1" x="43"/>
-        <item m="1" x="46"/>
-        <item m="1" x="34"/>
-        <item m="1" x="38"/>
-        <item m="1" x="41"/>
-        <item m="1" x="44"/>
-        <item m="1" x="47"/>
-        <item m="1" x="50"/>
-        <item m="1" x="52"/>
-        <item m="1" x="12"/>
-        <item m="1" x="57"/>
-        <item m="1" x="48"/>
-        <item m="1" x="36"/>
-        <item m="1" x="28"/>
-        <item m="1" x="21"/>
-        <item m="1" x="14"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="53" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51198,1020 +48877,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="15" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="15" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52671,8 +49338,1965 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item m="1" x="18"/>
+        <item m="1" x="9"/>
+        <item m="1" x="54"/>
+        <item m="1" x="40"/>
+        <item m="1" x="27"/>
+        <item m="1" x="19"/>
+        <item m="1" x="11"/>
+        <item m="1" x="55"/>
+        <item m="1" x="26"/>
+        <item m="1" x="58"/>
+        <item m="1" x="51"/>
+        <item m="1" x="35"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="30"/>
+        <item m="1" x="32"/>
+        <item m="1" x="37"/>
+        <item m="1" x="42"/>
+        <item m="1" x="45"/>
+        <item m="1" x="49"/>
+        <item m="1" x="53"/>
+        <item m="1" x="56"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="29"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="39"/>
+        <item m="1" x="43"/>
+        <item m="1" x="46"/>
+        <item m="1" x="34"/>
+        <item m="1" x="38"/>
+        <item m="1" x="41"/>
+        <item m="1" x="44"/>
+        <item m="1" x="47"/>
+        <item m="1" x="50"/>
+        <item m="1" x="52"/>
+        <item m="1" x="12"/>
+        <item m="1" x="57"/>
+        <item m="1" x="48"/>
+        <item m="1" x="36"/>
+        <item m="1" x="28"/>
+        <item m="1" x="21"/>
+        <item m="1" x="14"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="54" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52837,8 +51461,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="61" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53102,6 +51726,1475 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="15" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="15" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="58" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="16" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -55355,6 +55448,9 @@
       <c r="K8" t="s">
         <v>259</v>
       </c>
+      <c r="L8">
+        <v>115</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="17" t="s">
@@ -55416,7 +55512,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>57.25</v>
+        <v>172.25</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55466,7 +55562,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Venus2</v>
+        <v>Venus3</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55480,7 +55576,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55520,7 +55616,7 @@
         <v>148</v>
       </c>
       <c r="E8" s="20">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -55528,7 +55624,7 @@
         <v>175</v>
       </c>
       <c r="E9" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -55551,14 +55647,16 @@
       <c r="D12" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55567,7 +55665,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55576,7 +55674,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Venus", "") &amp; " Progress"</f>
-        <v>Sprint 2 Progress</v>
+        <v>Sprint 3 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56982,7 +57080,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus2</v>
+        <v>Venus3</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -57006,7 +57104,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus2</v>
+        <v>Venus3</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -57030,7 +57128,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus2</v>
+        <v>Venus3</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -57054,7 +57152,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus2</v>
+        <v>Venus3</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57078,7 +57176,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus2</v>
+        <v>Venus3</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57102,7 +57200,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus2</v>
+        <v>Venus3</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57123,7 +57221,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus2</v>
+        <v>Venus3</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58911,7 +59009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -58995,7 +59095,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.265625</v>
+        <v>0.328125</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59036,7 +59136,7 @@
       <c r="Q2" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="82" t="s">
         <v>194</v>
       </c>
       <c r="S2" s="22" t="s">
@@ -59073,7 +59173,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.734375</v>
+        <v>0.671875</v>
       </c>
       <c r="D3" s="26">
         <v>43775</v>
@@ -59243,52 +59343,44 @@
         <v>0.31746031746031744</v>
       </c>
       <c r="M5" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="N5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>-0.5</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
-        <v>-2</v>
+        <v>0.62</v>
       </c>
       <c r="P5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Export")</f>
-        <v>-2</v>
+        <v>0.34</v>
       </c>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
         <v>341.26984126984127</v>
       </c>
       <c r="R5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>330.3</v>
       </c>
       <c r="S5" s="42">
         <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
         <v>122.85714285714286</v>
       </c>
       <c r="T5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>150</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="U5" s="40">
         <f t="shared" ref="U5:U9" si="3">$Q$27*(100%-L5)</f>
         <v>102.38095238095238</v>
       </c>
       <c r="V5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="W5" s="40">
         <f t="shared" ref="W5:W9" si="4">$Q$28*(100%-K5)</f>
         <v>34.126984126984127</v>
       </c>
       <c r="X5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")</f>
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="Z5" s="32">
         <v>43825</v>
@@ -59317,7 +59409,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43797</v>
+        <v>43803</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>260</v>
@@ -59342,30 +59434,54 @@
         <f>SUM($J$4:J6)/SUM($J$4:$J$10)</f>
         <v>0.47619047619047616</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
+      <c r="M6" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
+        <v>-2</v>
+      </c>
+      <c r="P6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Export")</f>
+        <v>-2</v>
+      </c>
       <c r="Q6" s="40">
         <f t="shared" ref="Q6" si="5">$Q$25*(100%-K6)</f>
         <v>261.90476190476193</v>
       </c>
-      <c r="R6" s="42"/>
+      <c r="R6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S6" s="42">
         <f t="shared" ref="S6" si="6">$Q$26*(100%-K6)</f>
         <v>94.285714285714292</v>
       </c>
-      <c r="T6" s="42"/>
+      <c r="T6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>150</v>
+      </c>
       <c r="U6" s="40">
         <f t="shared" ref="U6" si="7">$Q$27*(100%-L6)</f>
         <v>78.571428571428569</v>
       </c>
-      <c r="V6" s="42"/>
+      <c r="V6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
+        <v>150</v>
+      </c>
       <c r="W6" s="40">
         <f t="shared" ref="W6" si="8">$Q$28*(100%-K6)</f>
         <v>26.190476190476193</v>
       </c>
-      <c r="X6" s="42"/>
+      <c r="X6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")</f>
+        <v>150</v>
+      </c>
       <c r="Z6" s="32">
         <v>43826</v>
       </c>
@@ -59899,7 +60015,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.265625</v>
+        <v>0.328125</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59908,7 +60024,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.734375</v>
+        <v>0.671875</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61008,132 +61124,115 @@
         <v>43802</v>
       </c>
       <c r="D5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>600</v>
+        <v>516.29999999999995</v>
       </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>500</v>
       </c>
       <c r="F5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>474.3</v>
       </c>
       <c r="G5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>448.3</v>
       </c>
       <c r="H5" s="40">
         <f t="shared" ref="H5" si="12">D5-I5</f>
-        <v>150</v>
+        <v>185.99999999999994</v>
       </c>
       <c r="I5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>330.3</v>
       </c>
       <c r="J5" s="33">
         <f t="shared" ref="J5" si="13" xml:space="preserve"> G5/D5</f>
-        <v>0.9</v>
+        <v>0.86829362773581265</v>
       </c>
       <c r="K5" s="33">
         <f t="shared" ref="K5" si="14" xml:space="preserve"> H5/D5</f>
-        <v>0.25</v>
+        <v>0.36025566531086572</v>
       </c>
       <c r="L5" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>100</v>
+        <v>218.8</v>
       </c>
       <c r="M5" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>180</v>
       </c>
       <c r="N5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>0</v>
+        <v>218.8</v>
       </c>
       <c r="O5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>180</v>
+        <v>211.8</v>
       </c>
       <c r="P5" s="40">
         <f t="shared" ref="P5" si="15">L5-Q5</f>
-        <v>-50</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>150</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5" si="16" xml:space="preserve"> O5/L5</f>
-        <v>1.8</v>
+        <v>0.96800731261425965</v>
       </c>
       <c r="S5" s="33">
         <f t="shared" ref="S5" si="17" xml:space="preserve"> P5/L5</f>
-        <v>-0.5</v>
+        <v>0.28793418647166358</v>
       </c>
       <c r="T5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="U5" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>150</v>
       </c>
       <c r="V5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="W5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="X5" s="40">
         <f t="shared" ref="X5" si="18">T5-Y5</f>
-        <v>-100</v>
+        <v>93</v>
       </c>
       <c r="Y5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="Z5" s="33">
         <f t="shared" ref="Z5" si="19" xml:space="preserve"> W5/T5</f>
-        <v>3.6</v>
+        <v>0.94</v>
       </c>
       <c r="AA5" s="33">
         <f t="shared" ref="AA5" si="20">X5/T5</f>
-        <v>-2</v>
+        <v>0.62</v>
       </c>
       <c r="AB5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="AC5" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>50</v>
       </c>
       <c r="AD5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AE5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="40">
-        <f t="shared" ref="AF5" si="21">AB5-AG5</f>
-        <v>-100</v>
+        <v>22</v>
       </c>
       <c r="AG5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="AH5" s="33">
-        <f t="shared" ref="AH5" si="22" xml:space="preserve"> AE5/AB5</f>
-        <v>3.6</v>
+        <f t="shared" ref="AH5" si="21" xml:space="preserve"> AE5/AB5</f>
+        <v>0.921875</v>
       </c>
       <c r="AI5" s="33">
-        <f t="shared" ref="AI5" si="23">AF5/AB5</f>
-        <v>-2</v>
+        <f t="shared" ref="AI5" si="22">AF5/AB5</f>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
@@ -61146,50 +61245,134 @@
       <c r="C6" s="60">
         <v>43816</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>600</v>
+      </c>
       <c r="E6" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>500</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="59"/>
+      <c r="F6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" ref="H6" si="23">D6-I6</f>
+        <v>150</v>
+      </c>
+      <c r="I6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" ref="J6" si="24" xml:space="preserve"> G6/D6</f>
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="33">
+        <f t="shared" ref="K6" si="25" xml:space="preserve"> H6/D6</f>
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>100</v>
+      </c>
       <c r="M6" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>180</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="57"/>
+      <c r="N6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>180</v>
+      </c>
+      <c r="P6" s="40">
+        <f t="shared" ref="P6" si="26">L6-Q6</f>
+        <v>-50</v>
+      </c>
+      <c r="Q6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>150</v>
+      </c>
+      <c r="R6" s="33">
+        <f t="shared" ref="R6" si="27" xml:space="preserve"> O6/L6</f>
+        <v>1.8</v>
+      </c>
+      <c r="S6" s="33">
+        <f t="shared" ref="S6" si="28" xml:space="preserve"> P6/L6</f>
+        <v>-0.5</v>
+      </c>
+      <c r="T6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>50</v>
+      </c>
       <c r="U6" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>150</v>
       </c>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="57"/>
+      <c r="V6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>180</v>
+      </c>
+      <c r="X6" s="40">
+        <f t="shared" ref="X6" si="29">T6-Y6</f>
+        <v>-100</v>
+      </c>
+      <c r="Y6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>150</v>
+      </c>
+      <c r="Z6" s="33">
+        <f t="shared" ref="Z6" si="30" xml:space="preserve"> W6/T6</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA6" s="33">
+        <f t="shared" ref="AA6" si="31">X6/T6</f>
+        <v>-2</v>
+      </c>
+      <c r="AB6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>50</v>
+      </c>
       <c r="AC6" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>50</v>
       </c>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
+      <c r="AD6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>180</v>
+      </c>
+      <c r="AF6" s="40">
+        <f t="shared" ref="AF6" si="32">AB6-AG6</f>
+        <v>-100</v>
+      </c>
+      <c r="AG6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>150</v>
+      </c>
+      <c r="AH6" s="33">
+        <f t="shared" ref="AH6" si="33" xml:space="preserve"> AE6/AB6</f>
+        <v>3.6</v>
+      </c>
+      <c r="AI6" s="33">
+        <f t="shared" ref="AI6" si="34">AF6/AB6</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -61909,20 +62092,24 @@
         <v>259</v>
       </c>
       <c r="C17" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D17" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>187.25</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>60</v>
+      </c>
+      <c r="D18" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">

--- a/blueprint-jira-better-excel/Venus-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Venus-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F30336D-B992-4CF2-AFDC-E0AB87A1B17C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5BE64-672B-4DBD-8E5E-76C12D548EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,9 @@
     <sheet name="Issues" sheetId="2" state="hidden" r:id="rId17"/>
     <sheet name="Notes" sheetId="25" state="hidden" r:id="rId18"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId19"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Issues!$AF$40:$AH$46</definedName>
     <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$10003),COUNTA(Issues!$A$1:$AAR$1) - 1)</definedName>
@@ -40,7 +43,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="73" r:id="rId19"/>
+    <pivotCache cacheId="77" r:id="rId20"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1835,10 +1838,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.53125</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46875</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,6 +2363,9 @@
                   <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3826,6 +3832,9 @@
                   <c:v>111.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4180,6 +4189,9 @@
                   <c:v>225.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>233.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4262,6 +4274,9 @@
                   <c:v>225.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>233.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4346,6 +4361,9 @@
                   <c:v>217.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>225.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4428,6 +4446,9 @@
                   <c:v>114.50000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>141.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5066,10 +5087,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.53125</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46875</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5597,6 +5618,9 @@
                   <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7072,6 +7096,9 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7644,6 +7671,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -7726,6 +7756,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7810,6 +7843,9 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7892,6 +7928,9 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -8489,10 +8528,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.53125</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46875</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9014,6 +9053,9 @@
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -9470,6 +9512,9 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9832,6 +9877,9 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -9914,6 +9962,9 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9998,6 +10049,9 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10080,6 +10134,9 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -11510,6 +11567,9 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -11648,6 +11708,9 @@
                   <c:v>115.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15401,6 +15464,9 @@
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -15635,7 +15701,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 4 Progress</c:v>
+              <c:v>Sprint 5 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -16136,7 +16202,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20474,6 +20540,9 @@
                   <c:v>210.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>217.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20828,6 +20897,9 @@
                   <c:v>490.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>535.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
@@ -20910,6 +20982,9 @@
                   <c:v>485.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>530.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20994,6 +21069,9 @@
                   <c:v>457.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>497.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -21076,6 +21154,9 @@
                   <c:v>279.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>318.49999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -22579,10 +22660,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.53125</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46875</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41389,7 +41470,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>53%</a:t>
+            <a:t>56%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41767,7 +41848,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>16</a:t>
+            <a:t>36</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -42030,7 +42111,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>53%</a:t>
+            <a:t>56%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42706,7 +42787,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>53%</a:t>
+            <a:t>56%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43213,7 +43294,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>53%</a:t>
+            <a:t>56%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43229,8 +43310,76 @@
 </c:userShapes>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release"/>
+      <sheetName val="Admin"/>
+      <sheetName val="Angular 8"/>
+      <sheetName val="Excel Export"/>
+      <sheetName val="_ReleaseData"/>
+      <sheetName val="_CumulativeFlowData "/>
+      <sheetName val="Readiness"/>
+      <sheetName val="_ReadinessData"/>
+      <sheetName val="Team Backlog"/>
+      <sheetName val="_TeamBacklogData"/>
+      <sheetName val="Team Velocity"/>
+      <sheetName val="_TeamVelocityData"/>
+      <sheetName val="Active Sprint"/>
+      <sheetName val="_ActiveSprintData"/>
+      <sheetName val="Bugs"/>
+      <sheetName val="_BugsData"/>
+      <sheetName val="Issues"/>
+      <sheetName val="Notes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="25">
+          <cell r="Q25">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="Q26">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="Q27">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="Q28">
+            <v>50</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43822.35316608796" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43832.31517465278" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -45078,7 +45227,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45127,7 +45276,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45176,7 +45325,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45225,7 +45374,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45274,7 +45423,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45323,7 +45472,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45372,7 +45521,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48775,8 +48924,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="73" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48883,7 +49032,7 @@
   <pageFields count="3">
     <pageField fld="32" item="8" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="16" hier="-1"/>
+    <pageField fld="10" item="15" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48901,3505 +49050,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="73" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="73" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="15" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="9"/>
-        <item m="1" x="54"/>
-        <item m="1" x="40"/>
-        <item m="1" x="27"/>
-        <item m="1" x="19"/>
-        <item m="1" x="11"/>
-        <item m="1" x="55"/>
-        <item m="1" x="26"/>
-        <item m="1" x="58"/>
-        <item m="1" x="51"/>
-        <item m="1" x="35"/>
-        <item m="1" x="25"/>
-        <item m="1" x="16"/>
-        <item m="1" x="30"/>
-        <item m="1" x="32"/>
-        <item m="1" x="37"/>
-        <item m="1" x="42"/>
-        <item m="1" x="45"/>
-        <item m="1" x="49"/>
-        <item m="1" x="53"/>
-        <item m="1" x="56"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="29"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="39"/>
-        <item m="1" x="43"/>
-        <item m="1" x="46"/>
-        <item m="1" x="34"/>
-        <item m="1" x="38"/>
-        <item m="1" x="41"/>
-        <item m="1" x="44"/>
-        <item m="1" x="47"/>
-        <item m="1" x="50"/>
-        <item m="1" x="52"/>
-        <item m="1" x="12"/>
-        <item m="1" x="57"/>
-        <item m="1" x="48"/>
-        <item m="1" x="36"/>
-        <item m="1" x="28"/>
-        <item m="1" x="21"/>
-        <item m="1" x="14"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="55" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="73" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item h="1" x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="73" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52859,9 +49510,2373 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="73" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="15" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item m="1" x="18"/>
+        <item m="1" x="9"/>
+        <item m="1" x="54"/>
+        <item m="1" x="40"/>
+        <item m="1" x="27"/>
+        <item m="1" x="19"/>
+        <item m="1" x="11"/>
+        <item m="1" x="55"/>
+        <item m="1" x="26"/>
+        <item m="1" x="58"/>
+        <item m="1" x="51"/>
+        <item m="1" x="35"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="30"/>
+        <item m="1" x="32"/>
+        <item m="1" x="37"/>
+        <item m="1" x="42"/>
+        <item m="1" x="45"/>
+        <item m="1" x="49"/>
+        <item m="1" x="53"/>
+        <item m="1" x="56"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="29"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="39"/>
+        <item m="1" x="43"/>
+        <item m="1" x="46"/>
+        <item m="1" x="34"/>
+        <item m="1" x="38"/>
+        <item m="1" x="41"/>
+        <item m="1" x="44"/>
+        <item m="1" x="47"/>
+        <item m="1" x="50"/>
+        <item m="1" x="52"/>
+        <item m="1" x="12"/>
+        <item m="1" x="57"/>
+        <item m="1" x="48"/>
+        <item m="1" x="36"/>
+        <item m="1" x="28"/>
+        <item m="1" x="21"/>
+        <item m="1" x="14"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="56" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52968,7 +51983,7 @@
   <pageFields count="3">
     <pageField fld="32" item="8" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="15" hier="-1"/>
+    <pageField fld="10" item="16" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -52985,8 +52000,361 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="73" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53111,8 +52479,168 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item h="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53277,8 +52805,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="73" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53378,6 +52906,627 @@
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -55659,6 +55808,9 @@
       <c r="K10" t="s">
         <v>261</v>
       </c>
+      <c r="L10">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
@@ -55698,7 +55850,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>264.25</v>
+        <v>297.75</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55748,7 +55900,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Venus4</v>
+        <v>Venus5</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55762,7 +55914,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -55834,7 +55986,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="20">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -55842,7 +55994,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -55851,7 +56003,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -55860,7 +56012,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Venus", "") &amp; " Progress"</f>
-        <v>Sprint 4 Progress</v>
+        <v>Sprint 5 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57266,7 +57418,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus4</v>
+        <v>Venus5</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -57290,7 +57442,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus4</v>
+        <v>Venus5</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -57314,7 +57466,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus4</v>
+        <v>Venus5</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -57338,7 +57490,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus4</v>
+        <v>Venus5</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57362,7 +57514,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus4</v>
+        <v>Venus5</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57386,7 +57538,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus4</v>
+        <v>Venus5</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57407,7 +57559,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus4</v>
+        <v>Venus5</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -59203,7 +59355,7 @@
     <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
@@ -59279,7 +59431,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.53125</v>
+        <v>0.5625</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59357,7 +59509,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="D3" s="26">
         <v>43775</v>
@@ -59593,7 +59745,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43822</v>
+        <v>43832</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>260</v>
@@ -59703,52 +59855,44 @@
         <v>0.53968253968253965</v>
       </c>
       <c r="M7" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.25</v>
+        <v>0.59</v>
       </c>
       <c r="N7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>-0.5</v>
+        <v>0.61</v>
       </c>
       <c r="O7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
-        <v>-2</v>
+        <v>0.72</v>
       </c>
       <c r="P7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Export")</f>
-        <v>-2</v>
+        <v>0.62</v>
       </c>
       <c r="Q7" s="40">
         <f t="shared" si="1"/>
         <v>230.15873015873018</v>
       </c>
       <c r="R7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>217.3</v>
       </c>
       <c r="S7" s="42">
         <f t="shared" si="2"/>
         <v>82.857142857142861</v>
       </c>
       <c r="T7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>150</v>
+        <v>91.8</v>
       </c>
       <c r="U7" s="40">
         <f t="shared" si="3"/>
         <v>69.047619047619051</v>
       </c>
       <c r="V7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="W7" s="40">
         <f t="shared" si="4"/>
         <v>23.015873015873016</v>
       </c>
       <c r="X7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")</f>
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="Z7" s="32">
         <v>43829</v>
@@ -59789,30 +59933,54 @@
         <f>SUM($J$4:J8)/SUM($J$4:$J$10)</f>
         <v>0.68253968253968256</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
+      <c r="M8" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="N8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
+        <v>-2</v>
+      </c>
+      <c r="P8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Export")</f>
+        <v>-2</v>
+      </c>
       <c r="Q8" s="40">
         <f t="shared" si="1"/>
         <v>158.73015873015873</v>
       </c>
-      <c r="R8" s="42"/>
+      <c r="R8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S8" s="42">
         <f t="shared" si="2"/>
         <v>57.142857142857139</v>
       </c>
-      <c r="T8" s="42"/>
+      <c r="T8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>150</v>
+      </c>
       <c r="U8" s="40">
         <f t="shared" si="3"/>
         <v>47.619047619047613</v>
       </c>
-      <c r="V8" s="42"/>
+      <c r="V8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
+        <v>150</v>
+      </c>
       <c r="W8" s="40">
         <f t="shared" si="4"/>
         <v>15.873015873015872</v>
       </c>
-      <c r="X8" s="42"/>
+      <c r="X8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")</f>
+        <v>150</v>
+      </c>
       <c r="Z8" s="32">
         <v>43830</v>
       </c>
@@ -60215,7 +60383,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.53125</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -60224,7 +60392,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -61568,132 +61736,116 @@
         <v>43830</v>
       </c>
       <c r="D7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>600</v>
+        <v>535.79999999999995</v>
       </c>
       <c r="E7" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>500</v>
       </c>
       <c r="F7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>530.79999999999995</v>
       </c>
       <c r="G7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>497.8</v>
       </c>
       <c r="H7" s="40">
-        <f t="shared" ref="H7" si="35">D7-I7</f>
-        <v>150</v>
+        <f t="shared" ref="H7:H8" si="35">D7-I7</f>
+        <v>318.49999999999994</v>
       </c>
       <c r="I7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>217.3</v>
       </c>
       <c r="J7" s="33">
-        <f t="shared" ref="J7" si="36" xml:space="preserve"> G7/D7</f>
-        <v>0.9</v>
+        <f t="shared" ref="J7:J8" si="36" xml:space="preserve"> G7/D7</f>
+        <v>0.92907801418439728</v>
       </c>
       <c r="K7" s="33">
-        <f t="shared" ref="K7" si="37" xml:space="preserve"> H7/D7</f>
-        <v>0.25</v>
+        <f t="shared" ref="K7:K8" si="37" xml:space="preserve"> H7/D7</f>
+        <v>0.59443822321761841</v>
       </c>
       <c r="L7" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>100</v>
+        <v>233.3</v>
       </c>
       <c r="M7" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>180</v>
       </c>
       <c r="N7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>0</v>
+        <v>233.3</v>
       </c>
       <c r="O7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>180</v>
+        <v>225.3</v>
       </c>
       <c r="P7" s="40">
-        <f t="shared" ref="P7" si="38">L7-Q7</f>
-        <v>-50</v>
+        <f t="shared" ref="P7:P8" si="38">L7-Q7</f>
+        <v>141.5</v>
       </c>
       <c r="Q7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>91.8</v>
+      </c>
+      <c r="R7" s="33">
+        <f t="shared" ref="R7:R8" si="39" xml:space="preserve"> O7/L7</f>
+        <v>0.96570938705529363</v>
+      </c>
+      <c r="S7" s="33">
+        <f t="shared" ref="S7:S8" si="40" xml:space="preserve"> P7/L7</f>
+        <v>0.60651521645949413</v>
+      </c>
+      <c r="T7" s="57">
         <v>150</v>
-      </c>
-      <c r="R7" s="33">
-        <f t="shared" ref="R7" si="39" xml:space="preserve"> O7/L7</f>
-        <v>1.8</v>
-      </c>
-      <c r="S7" s="33">
-        <f t="shared" ref="S7" si="40" xml:space="preserve"> P7/L7</f>
-        <v>-0.5</v>
-      </c>
-      <c r="T7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>50</v>
       </c>
       <c r="U7" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>150</v>
       </c>
       <c r="V7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="W7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="X7" s="40">
-        <f t="shared" ref="X7" si="41">T7-Y7</f>
-        <v>-100</v>
+        <f t="shared" ref="X7:X8" si="41">T7-Y7</f>
+        <v>108</v>
       </c>
       <c r="Y7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="Z7" s="33">
-        <f t="shared" ref="Z7" si="42" xml:space="preserve"> W7/T7</f>
-        <v>3.6</v>
+        <f t="shared" ref="Z7:Z8" si="42" xml:space="preserve"> W7/T7</f>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AA7" s="33">
-        <f t="shared" ref="AA7" si="43">X7/T7</f>
-        <v>-2</v>
+        <f t="shared" ref="AA7:AA8" si="43">X7/T7</f>
+        <v>0.72</v>
       </c>
       <c r="AB7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="AC7" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>50</v>
       </c>
       <c r="AD7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AE7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AF7" s="40">
-        <f t="shared" ref="AF7" si="44">AB7-AG7</f>
-        <v>-100</v>
+        <f t="shared" ref="AF7:AF8" si="44">AB7-AG7</f>
+        <v>43</v>
       </c>
       <c r="AG7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="AH7" s="33">
-        <f t="shared" ref="AH7" si="45" xml:space="preserve"> AE7/AB7</f>
-        <v>3.6</v>
+        <f t="shared" ref="AH7:AH8" si="45" xml:space="preserve"> AE7/AB7</f>
+        <v>0.85507246376811596</v>
       </c>
       <c r="AI7" s="33">
-        <f t="shared" ref="AI7" si="46">AF7/AB7</f>
-        <v>-2</v>
+        <f t="shared" ref="AI7:AI8" si="46">AF7/AB7</f>
+        <v>0.62318840579710144</v>
       </c>
       <c r="AL7" s="16" t="s">
         <v>135</v>
@@ -61712,50 +61864,134 @@
       <c r="C8" s="60">
         <v>43844</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58">
-        <f>_ReleaseData!$Q$25</f>
+      <c r="D8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>600</v>
+      </c>
+      <c r="E8" s="34">
+        <f>[1]_ReleaseData!$Q$25</f>
         <v>500</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="58">
-        <f>_ReleaseData!$Q$26</f>
+      <c r="F8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H8" s="40">
+        <f t="shared" si="35"/>
+        <v>150</v>
+      </c>
+      <c r="I8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" si="36"/>
+        <v>0.9</v>
+      </c>
+      <c r="K8" s="33">
+        <f t="shared" si="37"/>
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>100</v>
+      </c>
+      <c r="M8" s="34">
+        <f>[1]_ReleaseData!$Q$26</f>
         <v>180</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58">
-        <f>_ReleaseData!$Q$27</f>
+      <c r="N8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>180</v>
+      </c>
+      <c r="P8" s="40">
+        <f t="shared" si="38"/>
+        <v>-50</v>
+      </c>
+      <c r="Q8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
         <v>150</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="58">
-        <f>_ReleaseData!$Q$28</f>
+      <c r="R8" s="33">
+        <f t="shared" si="39"/>
+        <v>1.8</v>
+      </c>
+      <c r="S8" s="33">
+        <f t="shared" si="40"/>
+        <v>-0.5</v>
+      </c>
+      <c r="T8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
         <v>50</v>
       </c>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
+      <c r="U8" s="34">
+        <f>[1]_ReleaseData!$Q$27</f>
+        <v>150</v>
+      </c>
+      <c r="V8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>180</v>
+      </c>
+      <c r="X8" s="40">
+        <f t="shared" si="41"/>
+        <v>-100</v>
+      </c>
+      <c r="Y8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>150</v>
+      </c>
+      <c r="Z8" s="33">
+        <f t="shared" si="42"/>
+        <v>3.6</v>
+      </c>
+      <c r="AA8" s="33">
+        <f t="shared" si="43"/>
+        <v>-2</v>
+      </c>
+      <c r="AB8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>50</v>
+      </c>
+      <c r="AC8" s="34">
+        <f>[1]_ReleaseData!$Q$28</f>
+        <v>50</v>
+      </c>
+      <c r="AD8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>180</v>
+      </c>
+      <c r="AF8" s="40">
+        <f t="shared" si="44"/>
+        <v>-100</v>
+      </c>
+      <c r="AG8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>150</v>
+      </c>
+      <c r="AH8" s="33">
+        <f t="shared" si="45"/>
+        <v>3.6</v>
+      </c>
+      <c r="AI8" s="33">
+        <f t="shared" si="46"/>
+        <v>-2</v>
+      </c>
       <c r="AL8" s="16" t="s">
         <v>247</v>
       </c>
@@ -62381,20 +62617,24 @@
         <v>261</v>
       </c>
       <c r="C19" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D19" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>60</v>
+      </c>
+      <c r="D20" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">

--- a/blueprint-jira-better-excel/Venus-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Venus-Dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5BE64-672B-4DBD-8E5E-76C12D548EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DD4056-466A-4776-B6AC-BED46E00A1B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
     <sheet name="Issues" sheetId="2" state="hidden" r:id="rId17"/>
     <sheet name="Notes" sheetId="25" state="hidden" r:id="rId18"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId19"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Issues!$AF$40:$AH$46</definedName>
     <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$10003),COUNTA(Issues!$A$1:$AAR$1) - 1)</definedName>
@@ -43,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="77" r:id="rId20"/>
+    <pivotCache cacheId="46" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1838,10 +1835,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.71875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.28125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,6 +2363,9 @@
                   <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3835,6 +3835,9 @@
                   <c:v>91.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4192,6 +4195,9 @@
                   <c:v>233.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4277,6 +4283,9 @@
                   <c:v>233.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4364,6 +4373,9 @@
                   <c:v>225.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4449,6 +4461,9 @@
                   <c:v>141.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5087,10 +5102,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.71875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.28125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,6 +5636,9 @@
                   <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7099,6 +7117,9 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7674,6 +7695,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -7759,6 +7783,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7846,6 +7873,9 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7931,6 +7961,9 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -8528,10 +8561,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.71875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.28125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9056,6 +9089,9 @@
                   <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -9515,6 +9551,9 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9880,6 +9919,9 @@
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -9965,6 +10007,9 @@
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10052,6 +10097,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10137,6 +10185,9 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -11570,6 +11621,9 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>138.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -11711,6 +11765,9 @@
                   <c:v>118.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>193.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15467,6 +15524,9 @@
                   <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -15701,7 +15761,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 5 Progress</c:v>
+              <c:v>Sprint 6 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -16202,7 +16262,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20543,6 +20603,9 @@
                   <c:v>217.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20900,6 +20963,9 @@
                   <c:v>535.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
@@ -20985,6 +21051,9 @@
                   <c:v>530.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -21072,6 +21141,9 @@
                   <c:v>497.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -21157,6 +21229,9 @@
                   <c:v>318.49999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>388.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -22660,10 +22735,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.71875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.28125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41470,7 +41545,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>56%</a:t>
+            <a:t>72%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41848,7 +41923,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>36</a:t>
+            <a:t>16</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -42111,7 +42186,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>56%</a:t>
+            <a:t>72%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42787,7 +42862,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>56%</a:t>
+            <a:t>72%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43294,7 +43369,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>56%</a:t>
+            <a:t>72%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43310,76 +43385,8 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Release"/>
-      <sheetName val="Admin"/>
-      <sheetName val="Angular 8"/>
-      <sheetName val="Excel Export"/>
-      <sheetName val="_ReleaseData"/>
-      <sheetName val="_CumulativeFlowData "/>
-      <sheetName val="Readiness"/>
-      <sheetName val="_ReadinessData"/>
-      <sheetName val="Team Backlog"/>
-      <sheetName val="_TeamBacklogData"/>
-      <sheetName val="Team Velocity"/>
-      <sheetName val="_TeamVelocityData"/>
-      <sheetName val="Active Sprint"/>
-      <sheetName val="_ActiveSprintData"/>
-      <sheetName val="Bugs"/>
-      <sheetName val="_BugsData"/>
-      <sheetName val="Issues"/>
-      <sheetName val="Notes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="25">
-          <cell r="Q25">
-            <v>500</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="Q26">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="Q27">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Q28">
-            <v>50</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43832.31517465278" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43846.316613888892" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -45227,7 +45234,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45276,7 +45283,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45325,7 +45332,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45374,7 +45381,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45423,7 +45430,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45472,7 +45479,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45521,7 +45528,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48924,7 +48931,540 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="15" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49049,8 +49589,2610 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item m="1" x="18"/>
+        <item m="1" x="9"/>
+        <item m="1" x="54"/>
+        <item m="1" x="40"/>
+        <item m="1" x="27"/>
+        <item m="1" x="19"/>
+        <item m="1" x="11"/>
+        <item m="1" x="55"/>
+        <item m="1" x="26"/>
+        <item m="1" x="58"/>
+        <item m="1" x="51"/>
+        <item m="1" x="35"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="30"/>
+        <item m="1" x="32"/>
+        <item m="1" x="37"/>
+        <item m="1" x="42"/>
+        <item m="1" x="45"/>
+        <item m="1" x="49"/>
+        <item m="1" x="53"/>
+        <item m="1" x="56"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="29"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="39"/>
+        <item m="1" x="43"/>
+        <item m="1" x="46"/>
+        <item m="1" x="34"/>
+        <item m="1" x="38"/>
+        <item m="1" x="41"/>
+        <item m="1" x="44"/>
+        <item m="1" x="47"/>
+        <item m="1" x="50"/>
+        <item m="1" x="52"/>
+        <item m="1" x="12"/>
+        <item m="1" x="57"/>
+        <item m="1" x="48"/>
+        <item m="1" x="36"/>
+        <item m="1" x="28"/>
+        <item m="1" x="21"/>
+        <item m="1" x="14"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="57" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="16" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49510,3416 +52652,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="15" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="9"/>
-        <item m="1" x="54"/>
-        <item m="1" x="40"/>
-        <item m="1" x="27"/>
-        <item m="1" x="19"/>
-        <item m="1" x="11"/>
-        <item m="1" x="55"/>
-        <item m="1" x="26"/>
-        <item m="1" x="58"/>
-        <item m="1" x="51"/>
-        <item m="1" x="35"/>
-        <item m="1" x="25"/>
-        <item m="1" x="16"/>
-        <item m="1" x="30"/>
-        <item m="1" x="32"/>
-        <item m="1" x="37"/>
-        <item m="1" x="42"/>
-        <item m="1" x="45"/>
-        <item m="1" x="49"/>
-        <item m="1" x="53"/>
-        <item m="1" x="56"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="29"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="39"/>
-        <item m="1" x="43"/>
-        <item m="1" x="46"/>
-        <item m="1" x="34"/>
-        <item m="1" x="38"/>
-        <item m="1" x="41"/>
-        <item m="1" x="44"/>
-        <item m="1" x="47"/>
-        <item m="1" x="50"/>
-        <item m="1" x="52"/>
-        <item m="1" x="12"/>
-        <item m="1" x="57"/>
-        <item m="1" x="48"/>
-        <item m="1" x="36"/>
-        <item m="1" x="28"/>
-        <item m="1" x="21"/>
-        <item m="1" x="14"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="56" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="16" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item h="1" x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -53262,8 +52996,281 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item h="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="77" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -55822,6 +55829,9 @@
       <c r="K11" t="s">
         <v>262</v>
       </c>
+      <c r="L11">
+        <v>79.5</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
@@ -55850,7 +55860,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>297.75</v>
+        <v>377.25</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55900,7 +55910,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Venus5</v>
+        <v>Venus6</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55914,7 +55924,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -55986,7 +55996,7 @@
         <v>184</v>
       </c>
       <c r="E12" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -55994,7 +56004,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -56003,7 +56013,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -56012,7 +56022,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Venus", "") &amp; " Progress"</f>
-        <v>Sprint 5 Progress</v>
+        <v>Sprint 6 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57418,7 +57428,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus5</v>
+        <v>Venus6</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -57442,7 +57452,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus5</v>
+        <v>Venus6</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -57466,7 +57476,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus5</v>
+        <v>Venus6</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -57490,7 +57500,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus5</v>
+        <v>Venus6</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57514,7 +57524,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus5</v>
+        <v>Venus6</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57538,7 +57548,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus5</v>
+        <v>Venus6</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57559,7 +57569,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus5</v>
+        <v>Venus6</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -59347,17 +59357,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
@@ -59431,7 +59443,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.5625</v>
+        <v>0.71875</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59509,7 +59521,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.4375</v>
+        <v>0.28125</v>
       </c>
       <c r="D3" s="26">
         <v>43775</v>
@@ -59745,7 +59757,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43832</v>
+        <v>43846</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>260</v>
@@ -59934,52 +59946,44 @@
         <v>0.68253968253968256</v>
       </c>
       <c r="M8" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.25</v>
+        <v>0.72</v>
       </c>
       <c r="N8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
-        <v>-2</v>
+        <v>0.73</v>
       </c>
       <c r="P8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Export")</f>
-        <v>-2</v>
+        <v>0.91</v>
       </c>
       <c r="Q8" s="40">
         <f t="shared" si="1"/>
         <v>158.73015873015873</v>
       </c>
       <c r="R8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>147.5</v>
       </c>
       <c r="S8" s="42">
         <f t="shared" si="2"/>
         <v>57.142857142857139</v>
       </c>
       <c r="T8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>150</v>
+        <v>61.5</v>
       </c>
       <c r="U8" s="40">
         <f t="shared" si="3"/>
         <v>47.619047619047613</v>
       </c>
       <c r="V8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="W8" s="40">
         <f t="shared" si="4"/>
         <v>15.873015873015872</v>
       </c>
       <c r="X8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")</f>
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="Z8" s="32">
         <v>43830</v>
@@ -60024,30 +60028,54 @@
         <f>SUM($J$4:J9)/SUM($J$4:$J$10)</f>
         <v>0.84126984126984128</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
+      <c r="M9" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="N9" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O9" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
+        <v>-2</v>
+      </c>
+      <c r="P9" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Export")</f>
+        <v>-2</v>
+      </c>
       <c r="Q9" s="42">
         <f t="shared" si="1"/>
         <v>79.365079365079367</v>
       </c>
-      <c r="R9" s="42"/>
+      <c r="R9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S9" s="42">
         <f t="shared" si="2"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="T9" s="42"/>
+      <c r="T9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>150</v>
+      </c>
       <c r="U9" s="42">
         <f t="shared" si="3"/>
         <v>23.809523809523807</v>
       </c>
-      <c r="V9" s="42"/>
+      <c r="V9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
+        <v>150</v>
+      </c>
       <c r="W9" s="42">
         <f t="shared" si="4"/>
         <v>7.9365079365079358</v>
       </c>
-      <c r="X9" s="42"/>
+      <c r="X9" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")</f>
+        <v>150</v>
+      </c>
       <c r="Z9" s="32">
         <v>43831</v>
       </c>
@@ -60383,7 +60411,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.5625</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -60392,7 +60420,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.4375</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -61865,132 +61893,112 @@
         <v>43844</v>
       </c>
       <c r="D8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="E8" s="34">
-        <f>[1]_ReleaseData!$Q$25</f>
         <v>500</v>
       </c>
       <c r="F8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="G8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="H8" s="40">
         <f t="shared" si="35"/>
-        <v>150</v>
+        <v>388.5</v>
       </c>
       <c r="I8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>147.5</v>
       </c>
       <c r="J8" s="33">
         <f t="shared" si="36"/>
-        <v>0.9</v>
+        <v>0.98320895522388063</v>
       </c>
       <c r="K8" s="33">
         <f t="shared" si="37"/>
-        <v>0.25</v>
+        <v>0.72481343283582089</v>
       </c>
       <c r="L8" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>100</v>
+        <v>248.5</v>
       </c>
       <c r="M8" s="34">
-        <f>[1]_ReleaseData!$Q$26</f>
         <v>180</v>
       </c>
       <c r="N8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>0</v>
+        <v>248.5</v>
       </c>
       <c r="O8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>180</v>
+        <v>248.5</v>
       </c>
       <c r="P8" s="40">
         <f t="shared" si="38"/>
-        <v>-50</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>150</v>
+        <v>61.5</v>
       </c>
       <c r="R8" s="33">
         <f t="shared" si="39"/>
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="S8" s="33">
         <f t="shared" si="40"/>
-        <v>-0.5</v>
+        <v>0.7525150905432596</v>
       </c>
       <c r="T8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="U8" s="34">
-        <f>[1]_ReleaseData!$Q$27</f>
         <v>150</v>
       </c>
       <c r="V8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="W8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="X8" s="40">
         <f t="shared" si="41"/>
-        <v>-100</v>
+        <v>109</v>
       </c>
       <c r="Y8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="Z8" s="33">
         <f t="shared" si="42"/>
-        <v>3.6</v>
+        <v>0.94</v>
       </c>
       <c r="AA8" s="33">
         <f t="shared" si="43"/>
-        <v>-2</v>
+        <v>0.72666666666666668</v>
       </c>
       <c r="AB8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>67.5</v>
+      </c>
+      <c r="AC8" s="34">
         <v>50</v>
       </c>
-      <c r="AC8" s="34">
-        <f>[1]_ReleaseData!$Q$28</f>
-        <v>50</v>
-      </c>
       <c r="AD8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="AE8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>180</v>
+        <v>67.5</v>
       </c>
       <c r="AF8" s="40">
         <f t="shared" si="44"/>
-        <v>-100</v>
+        <v>61.5</v>
       </c>
       <c r="AG8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="AH8" s="33">
         <f t="shared" si="45"/>
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="33">
         <f t="shared" si="46"/>
-        <v>-2</v>
+        <v>0.91111111111111109</v>
       </c>
       <c r="AL8" s="16" t="s">
         <v>247</v>
@@ -62009,50 +62017,130 @@
       <c r="C9" s="60">
         <v>43858</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58">
-        <f>_ReleaseData!$Q$25</f>
+      <c r="D9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>600</v>
+      </c>
+      <c r="E9" s="34">
         <v>500</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="58">
-        <f>_ReleaseData!$Q$26</f>
+      <c r="F9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H9" s="40">
+        <f t="shared" ref="H9" si="47">D9-I9</f>
+        <v>150</v>
+      </c>
+      <c r="I9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J9" s="33">
+        <f t="shared" ref="J9" si="48" xml:space="preserve"> G9/D9</f>
+        <v>0.9</v>
+      </c>
+      <c r="K9" s="33">
+        <f t="shared" ref="K9" si="49" xml:space="preserve"> H9/D9</f>
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>100</v>
+      </c>
+      <c r="M9" s="34">
         <v>180</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58">
-        <f>_ReleaseData!$Q$27</f>
+      <c r="N9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>180</v>
+      </c>
+      <c r="P9" s="40">
+        <f t="shared" ref="P9" si="50">L9-Q9</f>
+        <v>-50</v>
+      </c>
+      <c r="Q9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
         <v>150</v>
       </c>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="58">
-        <f>_ReleaseData!$Q$28</f>
+      <c r="R9" s="33">
+        <f t="shared" ref="R9" si="51" xml:space="preserve"> O9/L9</f>
+        <v>1.8</v>
+      </c>
+      <c r="S9" s="33">
+        <f t="shared" ref="S9" si="52" xml:space="preserve"> P9/L9</f>
+        <v>-0.5</v>
+      </c>
+      <c r="T9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
         <v>50</v>
       </c>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
+      <c r="U9" s="34">
+        <v>150</v>
+      </c>
+      <c r="V9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>180</v>
+      </c>
+      <c r="X9" s="40">
+        <f t="shared" ref="X9" si="53">T9-Y9</f>
+        <v>-100</v>
+      </c>
+      <c r="Y9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>150</v>
+      </c>
+      <c r="Z9" s="33">
+        <f t="shared" ref="Z9" si="54" xml:space="preserve"> W9/T9</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA9" s="33">
+        <f t="shared" ref="AA9" si="55">X9/T9</f>
+        <v>-2</v>
+      </c>
+      <c r="AB9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>50</v>
+      </c>
+      <c r="AC9" s="34">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>180</v>
+      </c>
+      <c r="AF9" s="40">
+        <f t="shared" ref="AF9" si="56">AB9-AG9</f>
+        <v>-100</v>
+      </c>
+      <c r="AG9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>150</v>
+      </c>
+      <c r="AH9" s="33">
+        <f t="shared" ref="AH9" si="57" xml:space="preserve"> AE9/AB9</f>
+        <v>3.6</v>
+      </c>
+      <c r="AI9" s="33">
+        <f t="shared" ref="AI9" si="58">AF9/AB9</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="10" spans="1:42" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -62628,20 +62716,24 @@
         <v>262</v>
       </c>
       <c r="C20" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>60</v>
+        <v>138.5</v>
       </c>
       <c r="D20" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>60</v>
+      </c>
+      <c r="D21" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">

--- a/blueprint-jira-better-excel/Venus-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Venus-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DD4056-466A-4776-B6AC-BED46E00A1B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106FCAB2-4D33-4E28-8F14-652D914DCDFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,14 +40,16 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId19"/>
+    <pivotCache cacheId="60" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="281">
   <si>
     <t>Status</t>
   </si>
@@ -1835,10 +1837,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.71875</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28125</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,6 +2368,9 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3838,6 +3843,9 @@
                   <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4198,6 +4206,9 @@
                   <c:v>248.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4286,6 +4297,9 @@
                   <c:v>248.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4376,6 +4390,9 @@
                   <c:v>248.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4464,6 +4481,9 @@
                   <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>-50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5102,10 +5122,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.71875</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28125</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5639,6 +5659,9 @@
                   <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7120,6 +7143,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7698,6 +7724,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -7786,6 +7815,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7876,6 +7908,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7964,6 +7999,9 @@
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -8561,10 +8599,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.71875</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28125</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9092,6 +9130,9 @@
                   <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -9554,6 +9595,9 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9922,6 +9966,9 @@
                   <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -10010,6 +10057,9 @@
                   <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10100,6 +10150,9 @@
                   <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10188,6 +10241,9 @@
                   <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -11624,6 +11680,9 @@
                   <c:v>138.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>380.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -11768,6 +11827,9 @@
                   <c:v>193.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15527,6 +15589,9 @@
                   <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -15761,7 +15826,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint 6 Progress</c:v>
+              <c:v>Sprint 7 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -16116,7 +16181,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -16134,9 +16199,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -16212,7 +16275,7 @@
             <c:strRef>
               <c:f>_ActiveSprintData!$E$16</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Closed</c:v>
                 </c:pt>
@@ -16232,6 +16295,9 @@
                   <c:v>Cancelled</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Unkown</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
@@ -16242,7 +16308,7 @@
               <c:f>_ActiveSprintData!$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -16261,7 +16327,7 @@
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -20606,6 +20672,9 @@
                   <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20966,6 +21035,9 @@
                   <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>512.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
@@ -21054,6 +21126,9 @@
                   <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>512.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -21144,6 +21219,9 @@
                   <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>512.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -21232,6 +21310,9 @@
                   <c:v>388.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>459.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -22735,10 +22816,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.71875</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28125</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41545,7 +41626,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>72%</a:t>
+            <a:t>88%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42186,7 +42267,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>72%</a:t>
+            <a:t>88%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42862,7 +42943,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>72%</a:t>
+            <a:t>88%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43369,7 +43450,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>72%</a:t>
+            <a:t>88%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43386,7 +43467,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43846.316613888892" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43860.322966435182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -45234,7 +45315,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45283,7 +45364,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45332,7 +45413,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45381,7 +45462,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45430,7 +45511,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45479,7 +45560,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45528,7 +45609,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48931,945 +49012,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="15" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
+        <item x="4"/>
         <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="15" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
+        <item x="5"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -49900,28 +49059,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -49929,731 +49066,34 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
         <item x="0"/>
         <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
         <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="9"/>
-        <item m="1" x="54"/>
-        <item m="1" x="40"/>
-        <item m="1" x="27"/>
-        <item m="1" x="19"/>
-        <item m="1" x="11"/>
-        <item m="1" x="55"/>
-        <item m="1" x="26"/>
-        <item m="1" x="58"/>
-        <item m="1" x="51"/>
-        <item m="1" x="35"/>
-        <item m="1" x="25"/>
-        <item m="1" x="16"/>
-        <item m="1" x="30"/>
-        <item m="1" x="32"/>
-        <item m="1" x="37"/>
-        <item m="1" x="42"/>
-        <item m="1" x="45"/>
-        <item m="1" x="49"/>
-        <item m="1" x="53"/>
-        <item m="1" x="56"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="29"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="39"/>
-        <item m="1" x="43"/>
-        <item m="1" x="46"/>
-        <item m="1" x="34"/>
-        <item m="1" x="38"/>
-        <item m="1" x="41"/>
-        <item m="1" x="44"/>
-        <item m="1" x="47"/>
-        <item m="1" x="50"/>
-        <item m="1" x="52"/>
-        <item m="1" x="12"/>
-        <item m="1" x="57"/>
-        <item m="1" x="48"/>
-        <item m="1" x="36"/>
-        <item m="1" x="28"/>
-        <item m="1" x="21"/>
-        <item m="1" x="14"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
         <item x="8"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="34"/>
+    <field x="44"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
@@ -50673,6 +49113,9 @@
       <x v="6"/>
     </i>
     <i>
+      <x v="7"/>
+    </i>
+    <i>
       <x v="8"/>
     </i>
     <i t="grand">
@@ -50682,16 +49125,14 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="57" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
   </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -50700,107 +49141,203 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2">
+    <chartFormat chart="2" format="2">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="34" count="1" selected="0">
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="3">
+    <chartFormat chart="2" format="8">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="34" count="1" selected="0">
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="4">
+    <chartFormat chart="3" format="12">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="34" count="1" selected="0">
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="5">
+    <chartFormat chart="3" format="14">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="34" count="1" selected="0">
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="6">
+    <chartFormat chart="3" format="16">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="34" count="1" selected="0">
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="7"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="7">
+    <chartFormat chart="3" format="18">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
+          <reference field="44" count="1" selected="0">
             <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -50818,1381 +49355,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="66">
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="16" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="8" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="60" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52652,24 +49816,413 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="60" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="15" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
         <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -52700,6 +50253,28 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -52707,32 +50282,729 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="10">
         <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
         <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item m="1" x="18"/>
+        <item m="1" x="9"/>
+        <item m="1" x="54"/>
+        <item m="1" x="40"/>
+        <item m="1" x="27"/>
+        <item m="1" x="19"/>
+        <item m="1" x="11"/>
+        <item m="1" x="55"/>
+        <item m="1" x="26"/>
+        <item m="1" x="58"/>
+        <item m="1" x="51"/>
+        <item m="1" x="35"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="30"/>
+        <item m="1" x="32"/>
+        <item m="1" x="37"/>
+        <item m="1" x="42"/>
+        <item m="1" x="45"/>
+        <item m="1" x="49"/>
+        <item m="1" x="53"/>
+        <item m="1" x="56"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="29"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="39"/>
+        <item m="1" x="43"/>
+        <item m="1" x="46"/>
+        <item m="1" x="34"/>
+        <item m="1" x="38"/>
+        <item m="1" x="41"/>
+        <item m="1" x="44"/>
+        <item m="1" x="47"/>
+        <item m="1" x="50"/>
+        <item m="1" x="52"/>
+        <item m="1" x="12"/>
+        <item m="1" x="57"/>
+        <item m="1" x="48"/>
+        <item m="1" x="36"/>
+        <item m="1" x="28"/>
+        <item m="1" x="21"/>
+        <item m="1" x="14"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
         <item x="8"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="44"/>
+    <field x="34"/>
   </rowFields>
   <rowItems count="9">
     <i>
@@ -52766,14 +51038,16 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="58" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
   </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52782,203 +51056,107 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="2">
+    <chartFormat chart="0" format="2">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="44" count="1" selected="0">
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="3">
+    <chartFormat chart="0" format="4">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="44" count="1" selected="0">
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="4">
+    <chartFormat chart="0" format="8">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="5">
+    <chartFormat chart="0" format="9">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="44" count="1" selected="0">
+          <reference field="34" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
+    <chartFormat chart="0" format="10">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -52996,8 +51174,1215 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="66">
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="60" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="60" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="60" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53109,8 +52494,134 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="60" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="16" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53269,8 +52780,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="60" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53525,6 +53036,579 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="60" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="8" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="15" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -55841,6 +55925,9 @@
       <c r="K12" t="s">
         <v>263</v>
       </c>
+      <c r="L12">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
@@ -55860,7 +55947,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>377.25</v>
+        <v>469.25</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -55910,7 +55997,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Venus6</v>
+        <v>Venus7</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55924,7 +56011,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -55993,17 +56080,23 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="20">
-        <v>10</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E14" s="20">
         <v>16</v>
       </c>
     </row>
@@ -56022,7 +56115,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Venus", "") &amp; " Progress"</f>
-        <v>Sprint 6 Progress</v>
+        <v>Sprint 7 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -57428,7 +57521,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus6</v>
+        <v>Venus7</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -57452,7 +57545,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus6</v>
+        <v>Venus7</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -57476,7 +57569,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus6</v>
+        <v>Venus7</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -57500,7 +57593,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus6</v>
+        <v>Venus7</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -57524,7 +57617,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus6</v>
+        <v>Venus7</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -57548,7 +57641,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus6</v>
+        <v>Venus7</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57569,7 +57662,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Venus6</v>
+        <v>Venus7</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -59357,17 +59450,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
@@ -59443,7 +59534,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.71875</v>
+        <v>0.875</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59521,7 +59612,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.28125</v>
+        <v>0.125</v>
       </c>
       <c r="D3" s="26">
         <v>43775</v>
@@ -59757,7 +59848,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43846</v>
+        <v>43860</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>260</v>
@@ -60029,52 +60120,44 @@
         <v>0.84126984126984128</v>
       </c>
       <c r="M9" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="N9" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>-0.5</v>
+        <v>0.89</v>
       </c>
       <c r="O9" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="P9" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Export")</f>
-        <v>-2</v>
+        <v>0.99</v>
       </c>
       <c r="Q9" s="42">
         <f t="shared" si="1"/>
         <v>79.365079365079367</v>
       </c>
       <c r="R9" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>52.5</v>
       </c>
       <c r="S9" s="42">
         <f t="shared" si="2"/>
         <v>28.571428571428569</v>
       </c>
       <c r="T9" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="U9" s="42">
         <f t="shared" si="3"/>
         <v>23.809523809523807</v>
       </c>
       <c r="V9" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W9" s="42">
         <f t="shared" si="4"/>
         <v>7.9365079365079358</v>
       </c>
       <c r="X9" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")</f>
-        <v>150</v>
+        <v>0.5</v>
       </c>
       <c r="Z9" s="32">
         <v>43831</v>
@@ -60120,30 +60203,54 @@
         <f>SUM($J$4:J10)/SUM($J$4:$J$10)</f>
         <v>1</v>
       </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
+      <c r="M10" s="75">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="N10" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O10" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
+        <v>-2</v>
+      </c>
+      <c r="P10" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Export")</f>
+        <v>-2</v>
+      </c>
       <c r="Q10" s="71">
         <f t="shared" ref="Q10" si="13">$Q$25*(100%-K10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="71"/>
+      <c r="R10" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S10" s="71">
         <f t="shared" ref="S10" si="14">$Q$26*(100%-K10)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="71"/>
+      <c r="T10" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>150</v>
+      </c>
       <c r="U10" s="71">
         <f t="shared" ref="U10" si="15">$Q$27*(100%-L10)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="71"/>
+      <c r="V10" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Angular 8 Migration")</f>
+        <v>150</v>
+      </c>
       <c r="W10" s="71">
         <f t="shared" ref="W10" si="16">$Q$28*(100%-K10)</f>
         <v>0</v>
       </c>
-      <c r="X10" s="71"/>
+      <c r="X10" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Export")</f>
+        <v>150</v>
+      </c>
       <c r="Z10" s="32"/>
       <c r="AB10" s="17" t="s">
         <v>50</v>
@@ -60411,7 +60518,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.71875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -60420,7 +60527,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.28125</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -62018,128 +62125,112 @@
         <v>43858</v>
       </c>
       <c r="D9" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>600</v>
+        <v>512.29999999999995</v>
       </c>
       <c r="E9" s="34">
         <v>500</v>
       </c>
       <c r="F9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>512.29999999999995</v>
       </c>
       <c r="G9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>512.29999999999995</v>
       </c>
       <c r="H9" s="40">
         <f t="shared" ref="H9" si="47">D9-I9</f>
-        <v>150</v>
+        <v>459.79999999999995</v>
       </c>
       <c r="I9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>52.5</v>
       </c>
       <c r="J9" s="33">
         <f t="shared" ref="J9" si="48" xml:space="preserve"> G9/D9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K9" s="33">
         <f t="shared" ref="K9" si="49" xml:space="preserve"> H9/D9</f>
-        <v>0.25</v>
+        <v>0.89752098379855549</v>
       </c>
       <c r="L9" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>100</v>
+        <v>248.5</v>
       </c>
       <c r="M9" s="34">
         <v>180</v>
       </c>
       <c r="N9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>0</v>
+        <v>248.5</v>
       </c>
       <c r="O9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>180</v>
+        <v>248.5</v>
       </c>
       <c r="P9" s="40">
         <f t="shared" ref="P9" si="50">L9-Q9</f>
-        <v>-50</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>150</v>
+        <v>61.5</v>
       </c>
       <c r="R9" s="33">
         <f t="shared" ref="R9" si="51" xml:space="preserve"> O9/L9</f>
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="S9" s="33">
         <f t="shared" ref="S9" si="52" xml:space="preserve"> P9/L9</f>
-        <v>-0.5</v>
+        <v>0.7525150905432596</v>
       </c>
       <c r="T9" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="U9" s="34">
         <v>150</v>
       </c>
       <c r="V9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="W9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="X9" s="40">
         <f t="shared" ref="X9" si="53">T9-Y9</f>
-        <v>-100</v>
+        <v>112</v>
       </c>
       <c r="Y9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="33">
         <f t="shared" ref="Z9" si="54" xml:space="preserve"> W9/T9</f>
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="33">
         <f t="shared" ref="AA9" si="55">X9/T9</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="AC9" s="34">
         <v>50</v>
       </c>
       <c r="AD9" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AE9" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="AF9" s="40">
         <f t="shared" ref="AF9" si="56">AB9-AG9</f>
-        <v>-100</v>
+        <v>67.5</v>
       </c>
       <c r="AG9" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
-        <v>150</v>
+        <v>0.5</v>
       </c>
       <c r="AH9" s="33">
         <f t="shared" ref="AH9" si="57" xml:space="preserve"> AE9/AB9</f>
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="33">
         <f t="shared" ref="AI9" si="58">AF9/AB9</f>
-        <v>-2</v>
+        <v>0.99264705882352944</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -62152,50 +62243,130 @@
       <c r="C10" s="60">
         <v>43872</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58">
-        <f>_ReleaseData!$Q$25</f>
+      <c r="D10" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>600</v>
+      </c>
+      <c r="E10" s="34">
         <v>500</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="58">
-        <f>_ReleaseData!$Q$26</f>
+      <c r="F10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H10" s="40">
+        <f t="shared" ref="H10" si="59">D10-I10</f>
+        <v>150</v>
+      </c>
+      <c r="I10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J10" s="33">
+        <f t="shared" ref="J10" si="60" xml:space="preserve"> G10/D10</f>
+        <v>0.9</v>
+      </c>
+      <c r="K10" s="33">
+        <f t="shared" ref="K10" si="61" xml:space="preserve"> H10/D10</f>
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>100</v>
+      </c>
+      <c r="M10" s="34">
         <v>180</v>
       </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58">
-        <f>_ReleaseData!$Q$27</f>
+      <c r="N10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>180</v>
+      </c>
+      <c r="P10" s="40">
+        <f t="shared" ref="P10" si="62">L10-Q10</f>
+        <v>-50</v>
+      </c>
+      <c r="Q10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
         <v>150</v>
       </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58">
-        <f>_ReleaseData!$Q$28</f>
+      <c r="R10" s="33">
+        <f t="shared" ref="R10" si="63" xml:space="preserve"> O10/L10</f>
+        <v>1.8</v>
+      </c>
+      <c r="S10" s="33">
+        <f t="shared" ref="S10" si="64" xml:space="preserve"> P10/L10</f>
+        <v>-0.5</v>
+      </c>
+      <c r="T10" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
         <v>50</v>
       </c>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
+      <c r="U10" s="34">
+        <v>150</v>
+      </c>
+      <c r="V10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>180</v>
+      </c>
+      <c r="X10" s="40">
+        <f t="shared" ref="X10" si="65">T10-Y10</f>
+        <v>-100</v>
+      </c>
+      <c r="Y10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Angular 8 Migration")</f>
+        <v>150</v>
+      </c>
+      <c r="Z10" s="33">
+        <f t="shared" ref="Z10" si="66" xml:space="preserve"> W10/T10</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA10" s="33">
+        <f t="shared" ref="AA10" si="67">X10/T10</f>
+        <v>-2</v>
+      </c>
+      <c r="AB10" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>50</v>
+      </c>
+      <c r="AC10" s="34">
+        <v>50</v>
+      </c>
+      <c r="AD10" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>180</v>
+      </c>
+      <c r="AF10" s="40">
+        <f t="shared" ref="AF10" si="68">AB10-AG10</f>
+        <v>-100</v>
+      </c>
+      <c r="AG10" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Export")</f>
+        <v>150</v>
+      </c>
+      <c r="AH10" s="33">
+        <f t="shared" ref="AH10" si="69" xml:space="preserve"> AE10/AB10</f>
+        <v>3.6</v>
+      </c>
+      <c r="AI10" s="33">
+        <f t="shared" ref="AI10" si="70">AF10/AB10</f>
+        <v>-2</v>
+      </c>
       <c r="AM10" s="16" t="s">
         <v>162</v>
       </c>
@@ -62727,20 +62898,24 @@
         <v>263</v>
       </c>
       <c r="C21" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>60</v>
+        <v>380.5</v>
       </c>
       <c r="D21" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>146.5</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>60</v>
+      </c>
+      <c r="D22" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
